--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW3.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW3.xlsx
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>1.0902886397535416</v>
+        <v>0.0</v>
       </c>
       <c r="C94" t="n">
-        <v>1.1176597958791985</v>
+        <v>0.0</v>
       </c>
       <c r="D94" t="n">
-        <v>1.2454650086842336</v>
+        <v>0.0</v>
       </c>
       <c r="E94" t="n">
-        <v>1.1901894686213934</v>
+        <v>0.0</v>
       </c>
       <c r="F94" t="n">
-        <v>1.2083815401415687</v>
+        <v>0.0</v>
       </c>
       <c r="G94" t="n">
-        <v>1.088067582151942</v>
+        <v>0.0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.2447129158353547</v>
+        <v>0.0</v>
       </c>
       <c r="I94" t="n">
-        <v>1.0840211913234281</v>
+        <v>0.0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.2837057653276887</v>
+        <v>0.0</v>
       </c>
       <c r="K94" t="n">
-        <v>1.0902886397535416</v>
+        <v>0.0</v>
       </c>
       <c r="L94" t="n">
-        <v>1.1176597958791985</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>1.4859158754223323</v>
+        <v>0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>1.5340657680187777</v>
+        <v>0.0</v>
       </c>
       <c r="D107" t="n">
-        <v>1.4397234646408108</v>
+        <v>0.0</v>
       </c>
       <c r="E107" t="n">
-        <v>1.5908931211238775</v>
+        <v>0.0</v>
       </c>
       <c r="F107" t="n">
-        <v>1.394108146024938</v>
+        <v>0.0</v>
       </c>
       <c r="G107" t="n">
-        <v>1.6670997778140402</v>
+        <v>0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>1.5835970319057917</v>
+        <v>0.0</v>
       </c>
       <c r="I107" t="n">
-        <v>1.5826504700049975</v>
+        <v>0.0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.419154149752025</v>
+        <v>0.0</v>
       </c>
       <c r="K107" t="n">
-        <v>1.4859158754223323</v>
+        <v>0.0</v>
       </c>
       <c r="L107" t="n">
-        <v>1.5340657680187777</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>2.4739177426254306</v>
+        <v>0.0</v>
       </c>
       <c r="C159" t="n">
-        <v>2.438181429861168</v>
+        <v>0.0</v>
       </c>
       <c r="D159" t="n">
-        <v>2.805682353374401</v>
+        <v>0.0</v>
       </c>
       <c r="E159" t="n">
-        <v>2.6818206884778983</v>
+        <v>0.0</v>
       </c>
       <c r="F159" t="n">
-        <v>2.896504110698793</v>
+        <v>0.0</v>
       </c>
       <c r="G159" t="n">
-        <v>2.51841989137195</v>
+        <v>0.0</v>
       </c>
       <c r="H159" t="n">
-        <v>2.4304</v>
+        <v>0.0</v>
       </c>
       <c r="I159" t="n">
-        <v>3.018247075217529</v>
+        <v>0.0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.7595316391781757</v>
+        <v>0.0</v>
       </c>
       <c r="K159" t="n">
-        <v>2.4739177426254306</v>
+        <v>0.0</v>
       </c>
       <c r="L159" t="n">
-        <v>2.438181429861168</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>3.2561128200473988</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>3.263930685220763</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>3.240533333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>2.938434830812583</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>3.2836881354660914</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>3.178106246557389</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>3.283454303759852</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>2.7761733957210795</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>3.540113887952482</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>3.2561128200473988</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>3.263930685220763</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>3.1933116580685295</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>3.273478165141952</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>3.6478027807818094</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>3.485908012687553</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>3.5391901913250603</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>3.186806473226805</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>3.6455999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>3.1749551280557538</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>3.759804914483313</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>3.1933116580685295</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>3.273478165141952</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -12111,37 +12111,37 @@
         <v>316.0</v>
       </c>
       <c r="B317" t="n">
-        <v>1.388480019596116</v>
+        <v>0.0</v>
       </c>
       <c r="C317" t="n">
-        <v>1.6255549320852343</v>
+        <v>0.0</v>
       </c>
       <c r="D317" t="n">
-        <v>1.3874036155426512</v>
+        <v>0.0</v>
       </c>
       <c r="E317" t="n">
-        <v>1.7296389135903023</v>
+        <v>0.0</v>
       </c>
       <c r="F317" t="n">
-        <v>1.5086665838109221</v>
+        <v>0.0</v>
       </c>
       <c r="G317" t="n">
-        <v>1.5588614201762365</v>
+        <v>0.0</v>
       </c>
       <c r="H317" t="n">
-        <v>1.3523821421004674</v>
+        <v>0.0</v>
       </c>
       <c r="I317" t="n">
-        <v>1.6252463834652837</v>
+        <v>0.0</v>
       </c>
       <c r="J317" t="n">
-        <v>1.6035799675711375</v>
+        <v>0.0</v>
       </c>
       <c r="K317" t="n">
-        <v>1.388480019596116</v>
+        <v>0.0</v>
       </c>
       <c r="L317" t="n">
-        <v>1.6255549320852343</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="318">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>0.46058286131410103</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>0.46587986517940516</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.4710494510898659</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>0.519279887309593</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>0.527131177878601</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>0.5187482462133681</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.46312823811875076</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>0.49278264606685235</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>0.5067217059379955</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>0.46058286131410103</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>0.46587986517940516</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>3.9301547496478246</v>
+        <v>0.0</v>
       </c>
       <c r="C331" t="n">
-        <v>4.057508210373969</v>
+        <v>0.0</v>
       </c>
       <c r="D331" t="n">
-        <v>3.807978706149345</v>
+        <v>0.0</v>
       </c>
       <c r="E331" t="n">
-        <v>4.2078130125569615</v>
+        <v>0.0</v>
       </c>
       <c r="F331" t="n">
-        <v>3.6873290354108073</v>
+        <v>0.0</v>
       </c>
       <c r="G331" t="n">
-        <v>4.409374863197058</v>
+        <v>0.0</v>
       </c>
       <c r="H331" t="n">
-        <v>4.188515311947791</v>
+        <v>0.0</v>
       </c>
       <c r="I331" t="n">
-        <v>4.186011714798198</v>
+        <v>0.0</v>
       </c>
       <c r="J331" t="n">
-        <v>3.753574152066372</v>
+        <v>0.0</v>
       </c>
       <c r="K331" t="n">
-        <v>3.9301547496478246</v>
+        <v>0.0</v>
       </c>
       <c r="L331" t="n">
-        <v>4.057508210373969</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="332">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1.7010569102212916</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>1.6677493591134818</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>1.6455530570179604</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>1.4173557079745889</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>1.4616738215202902</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>1.3994611934135448</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>1.701062125626164</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>1.6125782550917953</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>1.4061801719912725</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>1.7010569102212916</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>1.6677493591134818</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.40707692301706905</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.3991061518237425</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.39379439399535404</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.3391848896742181</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.34979057910630085</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.3349025850184343</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.4070781711063922</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.3859032524206408</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.3365104919078535</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.40707692301706905</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.3991061518237425</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1.560169418045346</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>1.529620514997989</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>1.509262588396566</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>1.299965343185545</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>1.3406128753192403</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>1.2835529150056577</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>1.5601742014921172</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>1.479018875077996</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>1.289715404240723</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>1.560169418045346</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>1.529620514997989</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>4.123196237709051</v>
+        <v>0.0</v>
       </c>
       <c r="C395" t="n">
-        <v>4.0636357164352805</v>
+        <v>0.0</v>
       </c>
       <c r="D395" t="n">
-        <v>4.676137255624002</v>
+        <v>0.0</v>
       </c>
       <c r="E395" t="n">
-        <v>4.469701147463165</v>
+        <v>0.0</v>
       </c>
       <c r="F395" t="n">
-        <v>4.827506851164656</v>
+        <v>0.0</v>
       </c>
       <c r="G395" t="n">
-        <v>4.197366485619917</v>
+        <v>0.0</v>
       </c>
       <c r="H395" t="n">
-        <v>4.050666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="I395" t="n">
-        <v>5.0304117920292155</v>
+        <v>0.0</v>
       </c>
       <c r="J395" t="n">
-        <v>4.599219398630293</v>
+        <v>0.0</v>
       </c>
       <c r="K395" t="n">
-        <v>4.123196237709051</v>
+        <v>0.0</v>
       </c>
       <c r="L395" t="n">
-        <v>4.0636357164352805</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>3.710876613938145</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>3.6572721447917513</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>4.2085235300616</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>4.022731032716847</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>4.344756166048189</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>3.777629837057925</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>3.6455999999999995</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>4.527370612826293</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>4.139297458767262</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>3.710876613938145</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>3.6572721447917513</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>0.24704065847253723</v>
+        <v>0.0</v>
       </c>
       <c r="C475" t="n">
-        <v>0.2551760489773544</v>
+        <v>0.0</v>
       </c>
       <c r="D475" t="n">
-        <v>0.21408596959067605</v>
+        <v>0.0</v>
       </c>
       <c r="E475" t="n">
-        <v>0.2500910391526557</v>
+        <v>0.0</v>
       </c>
       <c r="F475" t="n">
-        <v>0.2416599251387616</v>
+        <v>0.0</v>
       </c>
       <c r="G475" t="n">
-        <v>0.2686163932628857</v>
+        <v>0.0</v>
       </c>
       <c r="H475" t="n">
-        <v>0.24002004675282787</v>
+        <v>0.0</v>
       </c>
       <c r="I475" t="n">
-        <v>0.22100653461420788</v>
+        <v>0.0</v>
       </c>
       <c r="J475" t="n">
-        <v>0.2488681606975995</v>
+        <v>0.0</v>
       </c>
       <c r="K475" t="n">
-        <v>0.24704065847253723</v>
+        <v>0.0</v>
       </c>
       <c r="L475" t="n">
-        <v>0.2551760489773544</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="476">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>7.075414790799051</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>6.537360603213335</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>7.11308798581546</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>6.875062701353961</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>7.670229813531311</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>7.016835554484066</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>6.133776872558103</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>6.39859184359549</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>7.383391043048239</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>7.075414790799051</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>6.537360603213335</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>0.4588949931686948</v>
+        <v>0.0</v>
       </c>
       <c r="C505" t="n">
-        <v>0.4591464405586236</v>
+        <v>0.0</v>
       </c>
       <c r="D505" t="n">
-        <v>0.40634169692176914</v>
+        <v>0.0</v>
       </c>
       <c r="E505" t="n">
-        <v>0.4659071446930726</v>
+        <v>0.0</v>
       </c>
       <c r="F505" t="n">
-        <v>0.46316280730033754</v>
+        <v>0.0</v>
       </c>
       <c r="G505" t="n">
-        <v>0.4166791204462354</v>
+        <v>0.0</v>
       </c>
       <c r="H505" t="n">
-        <v>0.4084961769462368</v>
+        <v>0.0</v>
       </c>
       <c r="I505" t="n">
-        <v>0.47244837087177216</v>
+        <v>0.0</v>
       </c>
       <c r="J505" t="n">
-        <v>0.45989425990444943</v>
+        <v>0.0</v>
       </c>
       <c r="K505" t="n">
-        <v>0.4588949931686948</v>
+        <v>0.0</v>
       </c>
       <c r="L505" t="n">
-        <v>0.4591464405586236</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="506">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>0.05815654287270558</v>
+        <v>0.0</v>
       </c>
       <c r="C524" t="n">
-        <v>0.06050940898586353</v>
+        <v>0.0</v>
       </c>
       <c r="D524" t="n">
-        <v>0.054044117925063855</v>
+        <v>0.0</v>
       </c>
       <c r="E524" t="n">
-        <v>0.04821695088850253</v>
+        <v>0.0</v>
       </c>
       <c r="F524" t="n">
-        <v>0.05552163025165046</v>
+        <v>0.0</v>
       </c>
       <c r="G524" t="n">
-        <v>0.05552703578524322</v>
+        <v>0.0</v>
       </c>
       <c r="H524" t="n">
-        <v>0.05482360041522265</v>
+        <v>0.0</v>
       </c>
       <c r="I524" t="n">
-        <v>0.05672787301876328</v>
+        <v>0.0</v>
       </c>
       <c r="J524" t="n">
-        <v>0.047598230924503035</v>
+        <v>0.0</v>
       </c>
       <c r="K524" t="n">
-        <v>0.05815654287270558</v>
+        <v>0.0</v>
       </c>
       <c r="L524" t="n">
-        <v>0.06050940898586353</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="525">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>2.9644879016704473</v>
+        <v>0.0</v>
       </c>
       <c r="C608" t="n">
-        <v>3.175222234807283</v>
+        <v>0.0</v>
       </c>
       <c r="D608" t="n">
-        <v>3.454855331003187</v>
+        <v>0.0</v>
       </c>
       <c r="E608" t="n">
-        <v>3.3392454967687124</v>
+        <v>0.0</v>
       </c>
       <c r="F608" t="n">
-        <v>3.7254613487337966</v>
+        <v>0.0</v>
       </c>
       <c r="G608" t="n">
-        <v>3.40810513950121</v>
+        <v>0.0</v>
       </c>
       <c r="H608" t="n">
-        <v>2.9792</v>
+        <v>0.0</v>
       </c>
       <c r="I608" t="n">
-        <v>3.1078216923286215</v>
+        <v>0.0</v>
       </c>
       <c r="J608" t="n">
-        <v>3.5861426087831574</v>
+        <v>0.0</v>
       </c>
       <c r="K608" t="n">
-        <v>2.9644879016704473</v>
+        <v>0.0</v>
       </c>
       <c r="L608" t="n">
-        <v>3.175222234807283</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="609">
@@ -23435,37 +23435,37 @@
         <v>614.0</v>
       </c>
       <c r="B615" t="n">
-        <v>1.6537717347766712</v>
+        <v>0.0</v>
       </c>
       <c r="C615" t="n">
-        <v>1.6577424093707462</v>
+        <v>0.0</v>
       </c>
       <c r="D615" t="n">
-        <v>1.6458589515919424</v>
+        <v>0.0</v>
       </c>
       <c r="E615" t="n">
-        <v>1.4924238612869625</v>
+        <v>0.0</v>
       </c>
       <c r="F615" t="n">
-        <v>1.667777170011044</v>
+        <v>0.0</v>
       </c>
       <c r="G615" t="n">
-        <v>1.614152386954847</v>
+        <v>0.0</v>
       </c>
       <c r="H615" t="n">
-        <v>1.6676584074595462</v>
+        <v>0.0</v>
       </c>
       <c r="I615" t="n">
-        <v>1.4100116753987837</v>
+        <v>0.0</v>
       </c>
       <c r="J615" t="n">
-        <v>1.7980151823182031</v>
+        <v>0.0</v>
       </c>
       <c r="K615" t="n">
-        <v>1.6537717347766712</v>
+        <v>0.0</v>
       </c>
       <c r="L615" t="n">
-        <v>1.6577424093707462</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
